--- a/line_response.xlsx
+++ b/line_response.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\python.uch\0505\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId4"/>
+    <sheet name="response" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
   <si>
     <t>Keyword</t>
   </si>
@@ -60,10 +68,12 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="12"/>
         <color indexed="11"/>
         <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
       </rPr>
       <t>https://優惠活動網址</t>
     </r>
@@ -83,43 +93,75 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="12"/>
         <color indexed="11"/>
         <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
       </rPr>
       <t>https://forms.gle/vdHfmWijtcBTsPNX6</t>
     </r>
+  </si>
+  <si>
+    <t>位置</t>
+  </si>
+  <si>
+    <t>台北101,110台北市信義區信義路五段7號, 25.0330766,121.5609268</t>
+  </si>
+  <si>
+    <r>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>oc</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="新細明體"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <u val="single"/>
+      <u/>
       <sz val="12"/>
       <color indexed="11"/>
       <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="3">
@@ -160,57 +202,122 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="一般 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ff0563c1"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FF0563C1"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office 佈景主題">
       <a:dk1>
@@ -412,7 +519,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -431,7 +538,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -461,7 +568,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -487,7 +594,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -513,7 +620,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -539,7 +646,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -565,7 +672,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -591,7 +698,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -617,7 +724,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -643,7 +750,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -669,7 +776,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -682,9 +789,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -701,7 +814,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -720,7 +833,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -746,7 +859,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -772,7 +885,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -798,7 +911,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -824,7 +937,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -850,7 +963,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -876,7 +989,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -902,7 +1015,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -928,7 +1041,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -954,7 +1067,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -967,9 +1080,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -983,7 +1102,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1002,7 +1121,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1032,7 +1151,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1058,7 +1177,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1084,7 +1203,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1110,7 +1229,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1136,7 +1255,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1162,7 +1281,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1188,7 +1307,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1214,7 +1333,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1240,7 +1359,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1253,164 +1372,184 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.85156" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="55" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6719" style="1" customWidth="1"/>
-    <col min="4" max="5" width="8.85156" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.85156" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.625" style="1" customWidth="1"/>
+    <col min="4" max="6" width="8.875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" ht="17" customHeight="1">
-      <c r="A2" t="s" s="2">
+    <row r="2" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s" s="2">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s" s="2">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" ht="17" customHeight="1">
-      <c r="A3" t="s" s="2">
+    <row r="3" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" ht="17" customHeight="1">
-      <c r="A4" t="s" s="2">
+    <row r="4" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s" s="2">
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s" s="2">
+      <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" ht="33" customHeight="1">
-      <c r="A5" t="s" s="2">
+    <row r="5" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s" s="2">
+      <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" ht="17" customHeight="1">
-      <c r="A6" t="s" s="2">
+    <row r="6" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B6" t="s" s="2">
+      <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C6" t="s" s="2">
+      <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" ht="20.25" customHeight="1">
-      <c r="A7" t="s" s="2">
+    <row r="7" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="s" s="5">
+      <c r="B7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C7" t="s" s="2">
+      <c r="C7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" ht="18.75" customHeight="1">
-      <c r="A8" t="s" s="2">
+    <row r="8" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="4"/>
-      <c r="C8" t="s" s="2">
+      <c r="C8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" ht="21" customHeight="1">
-      <c r="A9" t="s" s="2">
+    <row r="9" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" t="s" s="2">
+      <c r="C9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" ht="17" customHeight="1">
-      <c r="A10" t="s" s="2">
+    <row r="10" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B10" t="s" s="2">
+      <c r="B10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C10" t="s" s="2">
+      <c r="C10" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
+    <row r="11" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1" location="" tooltip="" display="https://優惠活動網址"/>
-    <hyperlink ref="B10" r:id="rId2" location="" tooltip="" display="https://forms.gle/vdHfmWijtcBTsPNX6"/>
+    <hyperlink ref="B10" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
